--- a/Mars_competitive_practice/Mars Share Skill & Manage Listings Test Conditions and Test cases .xlsx
+++ b/Mars_competitive_practice/Mars Share Skill & Manage Listings Test Conditions and Test cases .xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hui\source\repos\MARS\Mars_competitive_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5BF91D-312C-4096-B7DE-31A3D5DDF007}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B8E28-6494-450F-88B7-504809F47A05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="758" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Conditions-ShareSkill" sheetId="1" r:id="rId1"/>
-    <sheet name=" Test Case-ShareSkill" sheetId="2" r:id="rId2"/>
-    <sheet name="Test Conditions-ManageListings" sheetId="3" r:id="rId3"/>
-    <sheet name="Test Case-ManageListings" sheetId="4" r:id="rId4"/>
+    <sheet name="Test Conditions- Profile" sheetId="5" r:id="rId1"/>
+    <sheet name="Test Cases-Profile" sheetId="6" r:id="rId2"/>
+    <sheet name="Test Conditions-ShareSkill" sheetId="1" r:id="rId3"/>
+    <sheet name=" Test Case-ShareSkill" sheetId="2" r:id="rId4"/>
+    <sheet name="Test Conditions-ManageListings" sheetId="3" r:id="rId5"/>
+    <sheet name="Test Case-ManageListings" sheetId="4" r:id="rId6"/>
+    <sheet name="Test Conditions-ManageRequest" sheetId="7" r:id="rId7"/>
+    <sheet name="Test Cases- ManageRequest" sheetId="8" r:id="rId8"/>
+    <sheet name="Test Conditions- search skills" sheetId="9" r:id="rId9"/>
+    <sheet name="Test Cases - search skills" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="324">
   <si>
     <t>ID</t>
   </si>
@@ -2173,6 +2179,353 @@
   </si>
   <si>
     <t>Step 1: Launch the URL: "http://localhost:5000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profile </t>
+  </si>
+  <si>
+    <t>Validate "change password" on ServiceListing page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Edit the password"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click on "Account settings" in Profile page</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "Account Settings" and navigate to the page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> click on "Edit password" icon </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to see the Edit password input </t>
+  </si>
+  <si>
+    <t>User should be able to see notification "Password Changed Successfully"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter password details and save "Test1234!"</t>
+    </r>
+  </si>
+  <si>
+    <t>Manage Request</t>
+  </si>
+  <si>
+    <t>Validate "Manage Request" link on Home Page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to Click on "Manage Request" link in the home page</t>
+  </si>
+  <si>
+    <t>Validate the "Sent request" in Manage Listings page</t>
+  </si>
+  <si>
+    <t>Check if user is able to view all the request listings sent before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if user is able to see the request details page when click on request Title </t>
+  </si>
+  <si>
+    <t>Check if user is able to see the recipent details page when click on request recipent</t>
+  </si>
+  <si>
+    <t>check if user is able to withdraw the request</t>
+  </si>
+  <si>
+    <t>Validate the "received request" in Manage Listings page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if user is able to view all the received request listings </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click on "Manage Request" in Profile page</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "Manage Request" and navigate to the page</t>
+  </si>
+  <si>
+    <t>User should be able to Click on "Manage Requests" and navigate to the page</t>
+  </si>
+  <si>
+    <t>User should be able to view all the listings that has been sent before</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> click on request Title </t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to see the request details page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> click on request recipent</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to view the  see the recipent details page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click on withdraw button</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to cancel sent request</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click on sent request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click on received request</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to view all the received listing.</t>
+  </si>
+  <si>
+    <t>Search skills</t>
+  </si>
+  <si>
+    <t>Validate "search skill" link on Home Page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to Click on "search skill" icon in the home page</t>
+  </si>
+  <si>
+    <t>Validate the "search by categories" in search skill page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if user is able to search skills by all catogories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if user is able to search skills by sub catogories </t>
+  </si>
+  <si>
+    <t>Validate the "search by Filter " in search skill page</t>
+  </si>
+  <si>
+    <t>Check if user is able to search skills by filter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click on "search skill" in Profile page</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "search skill" icon and navigate to the page</t>
+  </si>
+  <si>
+    <t>Step 5: click on "all category" in search skill page</t>
+  </si>
+  <si>
+    <t>users should be able to click on all category and see all listing skils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if user is able to search skills by all sub-catogories </t>
+  </si>
+  <si>
+    <t>Step 5: click on "Graphic &amp; Design" in search skill page</t>
+  </si>
+  <si>
+    <t>users should be able to click on sub-category and see listing skils by defined</t>
+  </si>
+  <si>
+    <t>users should be able to click on specific filter and see listing skils by defined</t>
+  </si>
+  <si>
+    <t>Step 5: click on "online" in search skill page</t>
   </si>
 </sst>
 </file>
@@ -2267,7 +2620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2334,6 +2687,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2353,6 +2709,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2691,21 +3074,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A850E4-5804-43EE-9F93-2C6B47E0DA48}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2718,541 +3102,312 @@
       <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>56</v>
+        <v>276</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>93</v>
-      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FA8379-B342-4B1A-9854-3F900588CE97}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="54.26953125" customWidth="1"/>
+    <col min="3" max="3" width="56.81640625" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="41"/>
+      <c r="C8" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="41"/>
+      <c r="C9" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="41"/>
+      <c r="C10" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="41"/>
+      <c r="C11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="41"/>
+      <c r="C14" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="41"/>
+      <c r="C15" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="41"/>
+      <c r="C16" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="41"/>
+      <c r="C17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="41"/>
+      <c r="C20" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="41"/>
+      <c r="C21" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="41"/>
+      <c r="C22" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="41"/>
+      <c r="C23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B19:B23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z510"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A1FA31-42DC-4D72-9C9D-4F13357DDC72}">
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.08984375" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="16" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" s="16" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -3296,12 +3451,12 @@
       <c r="Y1" s="15"/>
       <c r="Z1" s="15"/>
     </row>
-    <row r="2" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>57</v>
+      <c r="B2" s="29" t="s">
+        <v>277</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>271</v>
@@ -3310,9 +3465,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29"/>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="24" t="s">
         <v>97</v>
       </c>
@@ -3321,8 +3476,8 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="23" t="s">
         <v>272</v>
       </c>
@@ -3330,9 +3485,685 @@
         <v>25</v>
       </c>
     </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.453125" style="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z510"/>
+  <sheetViews>
+    <sheetView topLeftCell="A281" zoomScale="77" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="16" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+    </row>
+    <row r="2" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="24" t="s">
         <v>144</v>
       </c>
@@ -3344,10 +4175,10 @@
       <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -3358,8 +4189,8 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="24" t="s">
         <v>97</v>
       </c>
@@ -3368,8 +4199,8 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="23" t="s">
         <v>272</v>
       </c>
@@ -3378,8 +4209,8 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="24" t="s">
         <v>144</v>
       </c>
@@ -3388,8 +4219,8 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="23" t="s">
         <v>100</v>
       </c>
@@ -3398,8 +4229,8 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="23" t="s">
         <v>101</v>
       </c>
@@ -3408,10 +4239,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -3422,8 +4253,8 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="24" t="s">
         <v>97</v>
       </c>
@@ -3432,8 +4263,8 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="23" t="s">
         <v>272</v>
       </c>
@@ -3442,8 +4273,8 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="24" t="s">
         <v>144</v>
       </c>
@@ -3452,8 +4283,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="23" t="s">
         <v>100</v>
       </c>
@@ -3462,8 +4293,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="23" t="s">
         <v>122</v>
       </c>
@@ -3476,10 +4307,10 @@
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>118</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -3490,8 +4321,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="24" t="s">
         <v>97</v>
       </c>
@@ -3500,8 +4331,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="23" t="s">
         <v>272</v>
       </c>
@@ -3510,8 +4341,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="24" t="s">
         <v>144</v>
       </c>
@@ -3520,8 +4351,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="23" t="s">
         <v>100</v>
       </c>
@@ -3530,8 +4361,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="23" t="s">
         <v>125</v>
       </c>
@@ -3544,10 +4375,10 @@
       <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="32" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="23" t="s">
@@ -3558,8 +4389,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="24" t="s">
         <v>97</v>
       </c>
@@ -3568,8 +4399,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="26"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="23" t="s">
         <v>272</v>
       </c>
@@ -3578,8 +4409,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="24" t="s">
         <v>144</v>
       </c>
@@ -3588,8 +4419,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="23" t="s">
         <v>107</v>
       </c>
@@ -3598,8 +4429,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="23" t="s">
         <v>109</v>
       </c>
@@ -3613,10 +4444,10 @@
       <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -3627,8 +4458,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="24" t="s">
         <v>97</v>
       </c>
@@ -3637,8 +4468,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="23" t="s">
         <v>272</v>
       </c>
@@ -3647,8 +4478,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="26"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="24" t="s">
         <v>144</v>
       </c>
@@ -3657,8 +4488,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="26"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="23" t="s">
         <v>107</v>
       </c>
@@ -3667,8 +4498,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="26"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="23" t="s">
         <v>129</v>
       </c>
@@ -3682,10 +4513,10 @@
       <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="26" t="s">
         <v>119</v>
       </c>
       <c r="C41" s="23" t="s">
@@ -3696,8 +4527,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="24" t="s">
         <v>97</v>
       </c>
@@ -3706,8 +4537,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="26"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="23" t="s">
         <v>272</v>
       </c>
@@ -3716,8 +4547,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="26"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="24" t="s">
         <v>144</v>
       </c>
@@ -3726,8 +4557,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="26"/>
-      <c r="B45" s="25"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="23" t="s">
         <v>107</v>
       </c>
@@ -3736,8 +4567,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="26"/>
-      <c r="B46" s="25"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="23" t="s">
         <v>127</v>
       </c>
@@ -3746,10 +4577,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="23" t="s">
@@ -3760,8 +4591,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="26"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="24" t="s">
         <v>97</v>
       </c>
@@ -3770,8 +4601,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="26"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="23" t="s">
         <v>272</v>
       </c>
@@ -3780,8 +4611,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="26"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="24" t="s">
         <v>144</v>
       </c>
@@ -3810,10 +4641,10 @@
       <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="26" t="s">
         <v>120</v>
       </c>
       <c r="C55" s="23" t="s">
@@ -3824,8 +4655,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="26"/>
-      <c r="B56" s="25"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="24" t="s">
         <v>97</v>
       </c>
@@ -3834,8 +4665,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="26"/>
-      <c r="B57" s="25"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="23" t="s">
         <v>272</v>
       </c>
@@ -3844,8 +4675,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="26"/>
-      <c r="B58" s="25"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="24" t="s">
         <v>144</v>
       </c>
@@ -3854,8 +4685,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="26"/>
-      <c r="B59" s="25"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="24" t="s">
         <v>112</v>
       </c>
@@ -3864,8 +4695,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="26"/>
-      <c r="B60" s="25"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="24" t="s">
         <v>131</v>
       </c>
@@ -3878,10 +4709,10 @@
       <c r="D61" s="18"/>
     </row>
     <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="26" t="s">
         <v>103</v>
       </c>
       <c r="C62" s="23" t="s">
@@ -3892,8 +4723,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="26"/>
-      <c r="B63" s="25"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="24" t="s">
         <v>97</v>
       </c>
@@ -3902,8 +4733,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="26"/>
-      <c r="B64" s="25"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="23" t="s">
         <v>272</v>
       </c>
@@ -3912,8 +4743,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="26"/>
-      <c r="B65" s="25"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="24" t="s">
         <v>144</v>
       </c>
@@ -3922,8 +4753,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="26"/>
-      <c r="B66" s="25"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="24" t="s">
         <v>112</v>
       </c>
@@ -3932,8 +4763,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="26"/>
-      <c r="B67" s="25"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="24" t="s">
         <v>113</v>
       </c>
@@ -3942,8 +4773,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="26"/>
-      <c r="B68" s="25"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="23" t="s">
         <v>116</v>
       </c>
@@ -3952,8 +4783,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="26"/>
-      <c r="B69" s="25"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="23" t="s">
         <v>117</v>
       </c>
@@ -3967,10 +4798,10 @@
       <c r="D70" s="18"/>
     </row>
     <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="26" t="s">
         <v>121</v>
       </c>
       <c r="C71" s="23" t="s">
@@ -3981,8 +4812,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="26"/>
-      <c r="B72" s="25"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="24" t="s">
         <v>97</v>
       </c>
@@ -3991,8 +4822,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="26"/>
-      <c r="B73" s="25"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="23" t="s">
         <v>272</v>
       </c>
@@ -4001,8 +4832,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="26"/>
-      <c r="B74" s="25"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="24" t="s">
         <v>144</v>
       </c>
@@ -4011,8 +4842,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="26"/>
-      <c r="B75" s="25"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="24" t="s">
         <v>112</v>
       </c>
@@ -4021,8 +4852,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="26"/>
-      <c r="B76" s="25"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="24" t="s">
         <v>113</v>
       </c>
@@ -4031,8 +4862,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="26"/>
-      <c r="B77" s="25"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="23" t="s">
         <v>116</v>
       </c>
@@ -4041,8 +4872,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A78" s="26"/>
-      <c r="B78" s="25"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="23" t="s">
         <v>134</v>
       </c>
@@ -4051,10 +4882,10 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="26" t="s">
         <v>63</v>
       </c>
       <c r="C80" s="23" t="s">
@@ -4065,8 +4896,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="26"/>
-      <c r="B81" s="25"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="24" t="s">
         <v>97</v>
       </c>
@@ -4075,8 +4906,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="26"/>
-      <c r="B82" s="25"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="23" t="s">
         <v>272</v>
       </c>
@@ -4085,8 +4916,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A83" s="26"/>
-      <c r="B83" s="25"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="24" t="s">
         <v>144</v>
       </c>
@@ -4095,8 +4926,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="26"/>
-      <c r="B84" s="25"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="26"/>
       <c r="C84" s="23" t="s">
         <v>136</v>
       </c>
@@ -4105,8 +4936,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="26"/>
-      <c r="B85" s="25"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="26"/>
       <c r="C85" s="23" t="s">
         <v>138</v>
       </c>
@@ -4120,10 +4951,10 @@
       <c r="D86" s="18"/>
     </row>
     <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="26" t="s">
         <v>65</v>
       </c>
       <c r="C87" s="23" t="s">
@@ -4134,8 +4965,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="26"/>
-      <c r="B88" s="25"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="24" t="s">
         <v>97</v>
       </c>
@@ -4144,8 +4975,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="26"/>
-      <c r="B89" s="25"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="23" t="s">
         <v>272</v>
       </c>
@@ -4154,8 +4985,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="26"/>
-      <c r="B90" s="25"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="24" t="s">
         <v>144</v>
       </c>
@@ -4164,8 +4995,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A91" s="26"/>
-      <c r="B91" s="25"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="26"/>
       <c r="C91" s="23" t="s">
         <v>136</v>
       </c>
@@ -4174,8 +5005,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="26"/>
-      <c r="B92" s="25"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="23" t="s">
         <v>138</v>
       </c>
@@ -4184,8 +5015,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="26"/>
-      <c r="B93" s="25"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="26"/>
       <c r="C93" s="23" t="s">
         <v>198</v>
       </c>
@@ -4199,10 +5030,10 @@
       <c r="D94" s="18"/>
     </row>
     <row r="95" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="26" t="s">
         <v>64</v>
       </c>
       <c r="C95" s="23" t="s">
@@ -4213,8 +5044,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="26"/>
-      <c r="B96" s="25"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="26"/>
       <c r="C96" s="24" t="s">
         <v>97</v>
       </c>
@@ -4223,8 +5054,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="26"/>
-      <c r="B97" s="25"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="26"/>
       <c r="C97" s="23" t="s">
         <v>272</v>
       </c>
@@ -4233,8 +5064,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="26"/>
-      <c r="B98" s="25"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="26"/>
       <c r="C98" s="24" t="s">
         <v>144</v>
       </c>
@@ -4243,8 +5074,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="26"/>
-      <c r="B99" s="25"/>
+      <c r="A99" s="27"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="23" t="s">
         <v>136</v>
       </c>
@@ -4253,8 +5084,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="26"/>
-      <c r="B100" s="25"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="23" t="s">
         <v>143</v>
       </c>
@@ -4268,10 +5099,10 @@
       <c r="D101" s="18"/>
     </row>
     <row r="102" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="26" t="s">
         <v>145</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -4282,8 +5113,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="26"/>
-      <c r="B103" s="25"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="26"/>
       <c r="C103" s="24" t="s">
         <v>97</v>
       </c>
@@ -4292,8 +5123,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="26"/>
-      <c r="B104" s="25"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="26"/>
       <c r="C104" s="23" t="s">
         <v>272</v>
       </c>
@@ -4302,8 +5133,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="26"/>
-      <c r="B105" s="25"/>
+      <c r="A105" s="27"/>
+      <c r="B105" s="26"/>
       <c r="C105" s="24" t="s">
         <v>144</v>
       </c>
@@ -4312,8 +5143,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A106" s="26"/>
-      <c r="B106" s="25"/>
+      <c r="A106" s="27"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="23" t="s">
         <v>151</v>
       </c>
@@ -4326,10 +5157,10 @@
       <c r="D107" s="18"/>
     </row>
     <row r="108" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="26" t="s">
+      <c r="A108" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B108" s="25" t="s">
+      <c r="B108" s="26" t="s">
         <v>146</v>
       </c>
       <c r="C108" s="23" t="s">
@@ -4340,8 +5171,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A109" s="26"/>
-      <c r="B109" s="25"/>
+      <c r="A109" s="27"/>
+      <c r="B109" s="26"/>
       <c r="C109" s="24" t="s">
         <v>97</v>
       </c>
@@ -4350,8 +5181,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A110" s="26"/>
-      <c r="B110" s="25"/>
+      <c r="A110" s="27"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="23" t="s">
         <v>272</v>
       </c>
@@ -4360,8 +5191,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A111" s="26"/>
-      <c r="B111" s="25"/>
+      <c r="A111" s="27"/>
+      <c r="B111" s="26"/>
       <c r="C111" s="24" t="s">
         <v>144</v>
       </c>
@@ -4370,8 +5201,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A112" s="26"/>
-      <c r="B112" s="25"/>
+      <c r="A112" s="27"/>
+      <c r="B112" s="26"/>
       <c r="C112" s="23" t="s">
         <v>152</v>
       </c>
@@ -4385,10 +5216,10 @@
       <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A114" s="26" t="s">
+      <c r="A114" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B114" s="25" t="s">
+      <c r="B114" s="26" t="s">
         <v>177</v>
       </c>
       <c r="C114" s="23" t="s">
@@ -4399,8 +5230,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A115" s="26"/>
-      <c r="B115" s="25"/>
+      <c r="A115" s="27"/>
+      <c r="B115" s="26"/>
       <c r="C115" s="24" t="s">
         <v>97</v>
       </c>
@@ -4409,8 +5240,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" s="26"/>
-      <c r="B116" s="25"/>
+      <c r="A116" s="27"/>
+      <c r="B116" s="26"/>
       <c r="C116" s="23" t="s">
         <v>272</v>
       </c>
@@ -4419,8 +5250,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A117" s="26"/>
-      <c r="B117" s="25"/>
+      <c r="A117" s="27"/>
+      <c r="B117" s="26"/>
       <c r="C117" s="24" t="s">
         <v>144</v>
       </c>
@@ -4429,8 +5260,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A118" s="26"/>
-      <c r="B118" s="25"/>
+      <c r="A118" s="27"/>
+      <c r="B118" s="26"/>
       <c r="C118" s="23" t="s">
         <v>153</v>
       </c>
@@ -4444,10 +5275,10 @@
       <c r="D119" s="18"/>
     </row>
     <row r="120" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A120" s="26" t="s">
+      <c r="A120" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B120" s="25" t="s">
+      <c r="B120" s="26" t="s">
         <v>178</v>
       </c>
       <c r="C120" s="23" t="s">
@@ -4458,8 +5289,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A121" s="26"/>
-      <c r="B121" s="25"/>
+      <c r="A121" s="27"/>
+      <c r="B121" s="26"/>
       <c r="C121" s="24" t="s">
         <v>97</v>
       </c>
@@ -4468,8 +5299,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A122" s="26"/>
-      <c r="B122" s="25"/>
+      <c r="A122" s="27"/>
+      <c r="B122" s="26"/>
       <c r="C122" s="23" t="s">
         <v>272</v>
       </c>
@@ -4478,8 +5309,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A123" s="26"/>
-      <c r="B123" s="25"/>
+      <c r="A123" s="27"/>
+      <c r="B123" s="26"/>
       <c r="C123" s="24" t="s">
         <v>144</v>
       </c>
@@ -4488,8 +5319,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A124" s="26"/>
-      <c r="B124" s="25"/>
+      <c r="A124" s="27"/>
+      <c r="B124" s="26"/>
       <c r="C124" s="23" t="s">
         <v>154</v>
       </c>
@@ -4503,10 +5334,10 @@
       <c r="D125" s="18"/>
     </row>
     <row r="126" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="26" t="s">
+      <c r="A126" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B126" s="25" t="s">
+      <c r="B126" s="26" t="s">
         <v>157</v>
       </c>
       <c r="C126" s="23" t="s">
@@ -4517,8 +5348,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A127" s="26"/>
-      <c r="B127" s="25"/>
+      <c r="A127" s="27"/>
+      <c r="B127" s="26"/>
       <c r="C127" s="24" t="s">
         <v>97</v>
       </c>
@@ -4527,8 +5358,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A128" s="26"/>
-      <c r="B128" s="25"/>
+      <c r="A128" s="27"/>
+      <c r="B128" s="26"/>
       <c r="C128" s="23" t="s">
         <v>272</v>
       </c>
@@ -4537,8 +5368,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" s="26"/>
-      <c r="B129" s="25"/>
+      <c r="A129" s="27"/>
+      <c r="B129" s="26"/>
       <c r="C129" s="24" t="s">
         <v>144</v>
       </c>
@@ -4547,8 +5378,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A130" s="26"/>
-      <c r="B130" s="25"/>
+      <c r="A130" s="27"/>
+      <c r="B130" s="26"/>
       <c r="C130" s="24" t="s">
         <v>155</v>
       </c>
@@ -4562,10 +5393,10 @@
       <c r="D131" s="18"/>
     </row>
     <row r="132" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A132" s="26" t="s">
+      <c r="A132" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B132" s="25" t="s">
+      <c r="B132" s="26" t="s">
         <v>158</v>
       </c>
       <c r="C132" s="23" t="s">
@@ -4576,8 +5407,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A133" s="26"/>
-      <c r="B133" s="25"/>
+      <c r="A133" s="27"/>
+      <c r="B133" s="26"/>
       <c r="C133" s="24" t="s">
         <v>97</v>
       </c>
@@ -4586,8 +5417,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A134" s="26"/>
-      <c r="B134" s="25"/>
+      <c r="A134" s="27"/>
+      <c r="B134" s="26"/>
       <c r="C134" s="23" t="s">
         <v>273</v>
       </c>
@@ -4596,8 +5427,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A135" s="26"/>
-      <c r="B135" s="25"/>
+      <c r="A135" s="27"/>
+      <c r="B135" s="26"/>
       <c r="C135" s="24" t="s">
         <v>144</v>
       </c>
@@ -4606,8 +5437,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A136" s="26"/>
-      <c r="B136" s="25"/>
+      <c r="A136" s="27"/>
+      <c r="B136" s="26"/>
       <c r="C136" s="24" t="s">
         <v>159</v>
       </c>
@@ -4621,10 +5452,10 @@
       <c r="D137" s="18"/>
     </row>
     <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A138" s="26" t="s">
+      <c r="A138" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B138" s="25" t="s">
+      <c r="B138" s="26" t="s">
         <v>72</v>
       </c>
       <c r="C138" s="23" t="s">
@@ -4635,8 +5466,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A139" s="26"/>
-      <c r="B139" s="25"/>
+      <c r="A139" s="27"/>
+      <c r="B139" s="26"/>
       <c r="C139" s="24" t="s">
         <v>97</v>
       </c>
@@ -4645,8 +5476,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A140" s="26"/>
-      <c r="B140" s="25"/>
+      <c r="A140" s="27"/>
+      <c r="B140" s="26"/>
       <c r="C140" s="23" t="s">
         <v>273</v>
       </c>
@@ -4655,8 +5486,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A141" s="26"/>
-      <c r="B141" s="25"/>
+      <c r="A141" s="27"/>
+      <c r="B141" s="26"/>
       <c r="C141" s="24" t="s">
         <v>144</v>
       </c>
@@ -4665,8 +5496,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A142" s="26"/>
-      <c r="B142" s="25"/>
+      <c r="A142" s="27"/>
+      <c r="B142" s="26"/>
       <c r="C142" s="24" t="s">
         <v>161</v>
       </c>
@@ -4680,10 +5511,10 @@
       <c r="D143" s="18"/>
     </row>
     <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A144" s="26" t="s">
+      <c r="A144" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B144" s="25" t="s">
+      <c r="B144" s="26" t="s">
         <v>163</v>
       </c>
       <c r="C144" s="23" t="s">
@@ -4694,8 +5525,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A145" s="26"/>
-      <c r="B145" s="25"/>
+      <c r="A145" s="27"/>
+      <c r="B145" s="26"/>
       <c r="C145" s="24" t="s">
         <v>97</v>
       </c>
@@ -4704,8 +5535,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A146" s="26"/>
-      <c r="B146" s="25"/>
+      <c r="A146" s="27"/>
+      <c r="B146" s="26"/>
       <c r="C146" s="23" t="s">
         <v>272</v>
       </c>
@@ -4714,8 +5545,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A147" s="26"/>
-      <c r="B147" s="25"/>
+      <c r="A147" s="27"/>
+      <c r="B147" s="26"/>
       <c r="C147" s="24" t="s">
         <v>144</v>
       </c>
@@ -4724,8 +5555,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A148" s="26"/>
-      <c r="B148" s="25"/>
+      <c r="A148" s="27"/>
+      <c r="B148" s="26"/>
       <c r="C148" s="24" t="s">
         <v>164</v>
       </c>
@@ -4740,10 +5571,10 @@
       <c r="D149" s="18"/>
     </row>
     <row r="150" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" s="26" t="s">
+      <c r="A150" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B150" s="25" t="s">
+      <c r="B150" s="26" t="s">
         <v>74</v>
       </c>
       <c r="C150" s="23" t="s">
@@ -4754,8 +5585,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A151" s="26"/>
-      <c r="B151" s="25"/>
+      <c r="A151" s="27"/>
+      <c r="B151" s="26"/>
       <c r="C151" s="24" t="s">
         <v>97</v>
       </c>
@@ -4764,8 +5595,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A152" s="26"/>
-      <c r="B152" s="25"/>
+      <c r="A152" s="27"/>
+      <c r="B152" s="26"/>
       <c r="C152" s="23" t="s">
         <v>273</v>
       </c>
@@ -4774,8 +5605,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A153" s="26"/>
-      <c r="B153" s="25"/>
+      <c r="A153" s="27"/>
+      <c r="B153" s="26"/>
       <c r="C153" s="24" t="s">
         <v>144</v>
       </c>
@@ -4784,8 +5615,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A154" s="26"/>
-      <c r="B154" s="25"/>
+      <c r="A154" s="27"/>
+      <c r="B154" s="26"/>
       <c r="C154" s="24" t="s">
         <v>166</v>
       </c>
@@ -4800,10 +5631,10 @@
       <c r="D155" s="18"/>
     </row>
     <row r="156" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A156" s="26" t="s">
+      <c r="A156" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B156" s="25" t="s">
+      <c r="B156" s="26" t="s">
         <v>75</v>
       </c>
       <c r="C156" s="23" t="s">
@@ -4814,8 +5645,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A157" s="26"/>
-      <c r="B157" s="25"/>
+      <c r="A157" s="27"/>
+      <c r="B157" s="26"/>
       <c r="C157" s="24" t="s">
         <v>97</v>
       </c>
@@ -4824,8 +5655,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A158" s="26"/>
-      <c r="B158" s="25"/>
+      <c r="A158" s="27"/>
+      <c r="B158" s="26"/>
       <c r="C158" s="23" t="s">
         <v>272</v>
       </c>
@@ -4834,8 +5665,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A159" s="26"/>
-      <c r="B159" s="25"/>
+      <c r="A159" s="27"/>
+      <c r="B159" s="26"/>
       <c r="C159" s="24" t="s">
         <v>144</v>
       </c>
@@ -4844,8 +5675,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A160" s="26"/>
-      <c r="B160" s="25"/>
+      <c r="A160" s="27"/>
+      <c r="B160" s="26"/>
       <c r="C160" s="24" t="s">
         <v>168</v>
       </c>
@@ -4860,10 +5691,10 @@
       <c r="D161" s="18"/>
     </row>
     <row r="162" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A162" s="26" t="s">
+      <c r="A162" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="B162" s="25" t="s">
+      <c r="B162" s="26" t="s">
         <v>76</v>
       </c>
       <c r="C162" s="23" t="s">
@@ -4874,8 +5705,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A163" s="26"/>
-      <c r="B163" s="25"/>
+      <c r="A163" s="27"/>
+      <c r="B163" s="26"/>
       <c r="C163" s="24" t="s">
         <v>97</v>
       </c>
@@ -4884,8 +5715,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A164" s="26"/>
-      <c r="B164" s="25"/>
+      <c r="A164" s="27"/>
+      <c r="B164" s="26"/>
       <c r="C164" s="23" t="s">
         <v>273</v>
       </c>
@@ -4894,8 +5725,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A165" s="26"/>
-      <c r="B165" s="25"/>
+      <c r="A165" s="27"/>
+      <c r="B165" s="26"/>
       <c r="C165" s="24" t="s">
         <v>144</v>
       </c>
@@ -4904,8 +5735,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A166" s="26"/>
-      <c r="B166" s="25"/>
+      <c r="A166" s="27"/>
+      <c r="B166" s="26"/>
       <c r="C166" s="24" t="s">
         <v>168</v>
       </c>
@@ -4914,8 +5745,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A167" s="26"/>
-      <c r="B167" s="25"/>
+      <c r="A167" s="27"/>
+      <c r="B167" s="26"/>
       <c r="C167" s="24" t="s">
         <v>170</v>
       </c>
@@ -4930,10 +5761,10 @@
       <c r="D168" s="18"/>
     </row>
     <row r="169" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A169" s="26" t="s">
+      <c r="A169" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="B169" s="25" t="s">
+      <c r="B169" s="26" t="s">
         <v>77</v>
       </c>
       <c r="C169" s="23" t="s">
@@ -4944,8 +5775,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A170" s="26"/>
-      <c r="B170" s="25"/>
+      <c r="A170" s="27"/>
+      <c r="B170" s="26"/>
       <c r="C170" s="24" t="s">
         <v>97</v>
       </c>
@@ -4954,8 +5785,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A171" s="26"/>
-      <c r="B171" s="25"/>
+      <c r="A171" s="27"/>
+      <c r="B171" s="26"/>
       <c r="C171" s="23" t="s">
         <v>272</v>
       </c>
@@ -4964,8 +5795,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A172" s="26"/>
-      <c r="B172" s="25"/>
+      <c r="A172" s="27"/>
+      <c r="B172" s="26"/>
       <c r="C172" s="24" t="s">
         <v>144</v>
       </c>
@@ -4974,8 +5805,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A173" s="26"/>
-      <c r="B173" s="25"/>
+      <c r="A173" s="27"/>
+      <c r="B173" s="26"/>
       <c r="C173" s="24" t="s">
         <v>168</v>
       </c>
@@ -4984,8 +5815,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A174" s="26"/>
-      <c r="B174" s="25"/>
+      <c r="A174" s="27"/>
+      <c r="B174" s="26"/>
       <c r="C174" s="24" t="s">
         <v>172</v>
       </c>
@@ -5000,10 +5831,10 @@
       <c r="D175" s="18"/>
     </row>
     <row r="176" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A176" s="26" t="s">
+      <c r="A176" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B176" s="25" t="s">
+      <c r="B176" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C176" s="23" t="s">
@@ -5014,8 +5845,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A177" s="26"/>
-      <c r="B177" s="25"/>
+      <c r="A177" s="27"/>
+      <c r="B177" s="26"/>
       <c r="C177" s="24" t="s">
         <v>97</v>
       </c>
@@ -5024,8 +5855,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A178" s="26"/>
-      <c r="B178" s="25"/>
+      <c r="A178" s="27"/>
+      <c r="B178" s="26"/>
       <c r="C178" s="23" t="s">
         <v>272</v>
       </c>
@@ -5034,8 +5865,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A179" s="26"/>
-      <c r="B179" s="25"/>
+      <c r="A179" s="27"/>
+      <c r="B179" s="26"/>
       <c r="C179" s="24" t="s">
         <v>144</v>
       </c>
@@ -5044,8 +5875,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A180" s="26"/>
-      <c r="B180" s="25"/>
+      <c r="A180" s="27"/>
+      <c r="B180" s="26"/>
       <c r="C180" s="24" t="s">
         <v>168</v>
       </c>
@@ -5054,8 +5885,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A181" s="26"/>
-      <c r="B181" s="25"/>
+      <c r="A181" s="27"/>
+      <c r="B181" s="26"/>
       <c r="C181" s="24" t="s">
         <v>181</v>
       </c>
@@ -5070,10 +5901,10 @@
       <c r="D182" s="18"/>
     </row>
     <row r="183" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A183" s="26" t="s">
+      <c r="A183" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B183" s="25" t="s">
+      <c r="B183" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C183" s="23" t="s">
@@ -5084,8 +5915,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A184" s="26"/>
-      <c r="B184" s="25"/>
+      <c r="A184" s="27"/>
+      <c r="B184" s="26"/>
       <c r="C184" s="24" t="s">
         <v>97</v>
       </c>
@@ -5094,8 +5925,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A185" s="26"/>
-      <c r="B185" s="25"/>
+      <c r="A185" s="27"/>
+      <c r="B185" s="26"/>
       <c r="C185" s="23" t="s">
         <v>272</v>
       </c>
@@ -5104,8 +5935,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A186" s="26"/>
-      <c r="B186" s="25"/>
+      <c r="A186" s="27"/>
+      <c r="B186" s="26"/>
       <c r="C186" s="24" t="s">
         <v>144</v>
       </c>
@@ -5114,8 +5945,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A187" s="26"/>
-      <c r="B187" s="25"/>
+      <c r="A187" s="27"/>
+      <c r="B187" s="26"/>
       <c r="C187" s="24" t="s">
         <v>168</v>
       </c>
@@ -5124,8 +5955,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A188" s="26"/>
-      <c r="B188" s="25"/>
+      <c r="A188" s="27"/>
+      <c r="B188" s="26"/>
       <c r="C188" s="24" t="s">
         <v>183</v>
       </c>
@@ -5140,10 +5971,10 @@
       <c r="D189" s="18"/>
     </row>
     <row r="190" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A190" s="26" t="s">
+      <c r="A190" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B190" s="25" t="s">
+      <c r="B190" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C190" s="23" t="s">
@@ -5154,8 +5985,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A191" s="26"/>
-      <c r="B191" s="25"/>
+      <c r="A191" s="27"/>
+      <c r="B191" s="26"/>
       <c r="C191" s="24" t="s">
         <v>97</v>
       </c>
@@ -5164,8 +5995,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A192" s="26"/>
-      <c r="B192" s="25"/>
+      <c r="A192" s="27"/>
+      <c r="B192" s="26"/>
       <c r="C192" s="23" t="s">
         <v>272</v>
       </c>
@@ -5174,8 +6005,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A193" s="26"/>
-      <c r="B193" s="25"/>
+      <c r="A193" s="27"/>
+      <c r="B193" s="26"/>
       <c r="C193" s="24" t="s">
         <v>144</v>
       </c>
@@ -5184,8 +6015,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A194" s="26"/>
-      <c r="B194" s="25"/>
+      <c r="A194" s="27"/>
+      <c r="B194" s="26"/>
       <c r="C194" s="24" t="s">
         <v>168</v>
       </c>
@@ -5194,8 +6025,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A195" s="26"/>
-      <c r="B195" s="25"/>
+      <c r="A195" s="27"/>
+      <c r="B195" s="26"/>
       <c r="C195" s="24" t="s">
         <v>185</v>
       </c>
@@ -5210,10 +6041,10 @@
       <c r="D196" s="18"/>
     </row>
     <row r="197" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A197" s="26" t="s">
+      <c r="A197" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B197" s="25" t="s">
+      <c r="B197" s="26" t="s">
         <v>81</v>
       </c>
       <c r="C197" s="23" t="s">
@@ -5224,8 +6055,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A198" s="26"/>
-      <c r="B198" s="25"/>
+      <c r="A198" s="27"/>
+      <c r="B198" s="26"/>
       <c r="C198" s="24" t="s">
         <v>97</v>
       </c>
@@ -5234,8 +6065,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A199" s="26"/>
-      <c r="B199" s="25"/>
+      <c r="A199" s="27"/>
+      <c r="B199" s="26"/>
       <c r="C199" s="23" t="s">
         <v>273</v>
       </c>
@@ -5244,8 +6075,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A200" s="26"/>
-      <c r="B200" s="25"/>
+      <c r="A200" s="27"/>
+      <c r="B200" s="26"/>
       <c r="C200" s="24" t="s">
         <v>144</v>
       </c>
@@ -5254,8 +6085,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="26"/>
-      <c r="B201" s="25"/>
+      <c r="A201" s="27"/>
+      <c r="B201" s="26"/>
       <c r="C201" s="24" t="s">
         <v>168</v>
       </c>
@@ -5264,8 +6095,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A202" s="26"/>
-      <c r="B202" s="25"/>
+      <c r="A202" s="27"/>
+      <c r="B202" s="26"/>
       <c r="C202" s="24" t="s">
         <v>187</v>
       </c>
@@ -5280,10 +6111,10 @@
       <c r="D203" s="18"/>
     </row>
     <row r="204" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A204" s="26" t="s">
+      <c r="A204" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B204" s="25" t="s">
+      <c r="B204" s="26" t="s">
         <v>104</v>
       </c>
       <c r="C204" s="23" t="s">
@@ -5294,8 +6125,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A205" s="26"/>
-      <c r="B205" s="25"/>
+      <c r="A205" s="27"/>
+      <c r="B205" s="26"/>
       <c r="C205" s="24" t="s">
         <v>97</v>
       </c>
@@ -5304,8 +6135,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A206" s="26"/>
-      <c r="B206" s="25"/>
+      <c r="A206" s="27"/>
+      <c r="B206" s="26"/>
       <c r="C206" s="23" t="s">
         <v>273</v>
       </c>
@@ -5314,8 +6145,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A207" s="26"/>
-      <c r="B207" s="25"/>
+      <c r="A207" s="27"/>
+      <c r="B207" s="26"/>
       <c r="C207" s="24" t="s">
         <v>144</v>
       </c>
@@ -5324,8 +6155,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A208" s="26"/>
-      <c r="B208" s="25"/>
+      <c r="A208" s="27"/>
+      <c r="B208" s="26"/>
       <c r="C208" s="23" t="s">
         <v>193</v>
       </c>
@@ -5340,10 +6171,10 @@
       <c r="D209" s="18"/>
     </row>
     <row r="210" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A210" s="26" t="s">
+      <c r="A210" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="25" t="s">
+      <c r="B210" s="26" t="s">
         <v>105</v>
       </c>
       <c r="C210" s="23" t="s">
@@ -5354,8 +6185,8 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A211" s="26"/>
-      <c r="B211" s="25"/>
+      <c r="A211" s="27"/>
+      <c r="B211" s="26"/>
       <c r="C211" s="24" t="s">
         <v>97</v>
       </c>
@@ -5364,8 +6195,8 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A212" s="26"/>
-      <c r="B212" s="25"/>
+      <c r="A212" s="27"/>
+      <c r="B212" s="26"/>
       <c r="C212" s="23" t="s">
         <v>273</v>
       </c>
@@ -5374,8 +6205,8 @@
       </c>
     </row>
     <row r="213" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A213" s="26"/>
-      <c r="B213" s="25"/>
+      <c r="A213" s="27"/>
+      <c r="B213" s="26"/>
       <c r="C213" s="24" t="s">
         <v>144</v>
       </c>
@@ -5384,8 +6215,8 @@
       </c>
     </row>
     <row r="214" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A214" s="26"/>
-      <c r="B214" s="25"/>
+      <c r="A214" s="27"/>
+      <c r="B214" s="26"/>
       <c r="C214" s="23" t="s">
         <v>193</v>
       </c>
@@ -5400,10 +6231,10 @@
       <c r="D215" s="18"/>
     </row>
     <row r="216" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A216" s="26" t="s">
+      <c r="A216" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B216" s="25" t="s">
+      <c r="B216" s="26" t="s">
         <v>174</v>
       </c>
       <c r="C216" s="23" t="s">
@@ -5414,8 +6245,8 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A217" s="26"/>
-      <c r="B217" s="25"/>
+      <c r="A217" s="27"/>
+      <c r="B217" s="26"/>
       <c r="C217" s="24" t="s">
         <v>97</v>
       </c>
@@ -5424,8 +6255,8 @@
       </c>
     </row>
     <row r="218" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A218" s="26"/>
-      <c r="B218" s="25"/>
+      <c r="A218" s="27"/>
+      <c r="B218" s="26"/>
       <c r="C218" s="23" t="s">
         <v>273</v>
       </c>
@@ -5434,8 +6265,8 @@
       </c>
     </row>
     <row r="219" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A219" s="26"/>
-      <c r="B219" s="25"/>
+      <c r="A219" s="27"/>
+      <c r="B219" s="26"/>
       <c r="C219" s="24" t="s">
         <v>144</v>
       </c>
@@ -5444,8 +6275,8 @@
       </c>
     </row>
     <row r="220" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A220" s="26"/>
-      <c r="B220" s="25"/>
+      <c r="A220" s="27"/>
+      <c r="B220" s="26"/>
       <c r="C220" s="23" t="s">
         <v>193</v>
       </c>
@@ -5454,8 +6285,8 @@
       </c>
     </row>
     <row r="221" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="26"/>
-      <c r="B221" s="25"/>
+      <c r="A221" s="27"/>
+      <c r="B221" s="26"/>
       <c r="C221" s="23" t="s">
         <v>196</v>
       </c>
@@ -5470,10 +6301,10 @@
       <c r="D222" s="18"/>
     </row>
     <row r="223" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A223" s="26" t="s">
+      <c r="A223" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B223" s="25" t="s">
+      <c r="B223" s="26" t="s">
         <v>199</v>
       </c>
       <c r="C223" s="23" t="s">
@@ -5484,8 +6315,8 @@
       </c>
     </row>
     <row r="224" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A224" s="26"/>
-      <c r="B224" s="25"/>
+      <c r="A224" s="27"/>
+      <c r="B224" s="26"/>
       <c r="C224" s="24" t="s">
         <v>97</v>
       </c>
@@ -5494,8 +6325,8 @@
       </c>
     </row>
     <row r="225" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A225" s="26"/>
-      <c r="B225" s="25"/>
+      <c r="A225" s="27"/>
+      <c r="B225" s="26"/>
       <c r="C225" s="23" t="s">
         <v>273</v>
       </c>
@@ -5504,8 +6335,8 @@
       </c>
     </row>
     <row r="226" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A226" s="26"/>
-      <c r="B226" s="25"/>
+      <c r="A226" s="27"/>
+      <c r="B226" s="26"/>
       <c r="C226" s="24" t="s">
         <v>144</v>
       </c>
@@ -5514,8 +6345,8 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="26"/>
-      <c r="B227" s="25"/>
+      <c r="A227" s="27"/>
+      <c r="B227" s="26"/>
       <c r="C227" s="23" t="s">
         <v>193</v>
       </c>
@@ -5524,8 +6355,8 @@
       </c>
     </row>
     <row r="228" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="26"/>
-      <c r="B228" s="25"/>
+      <c r="A228" s="27"/>
+      <c r="B228" s="26"/>
       <c r="C228" s="23" t="s">
         <v>196</v>
       </c>
@@ -5534,8 +6365,8 @@
       </c>
     </row>
     <row r="229" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A229" s="26"/>
-      <c r="B229" s="25"/>
+      <c r="A229" s="27"/>
+      <c r="B229" s="26"/>
       <c r="C229" s="23" t="s">
         <v>198</v>
       </c>
@@ -5550,10 +6381,10 @@
       <c r="D230" s="18"/>
     </row>
     <row r="231" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A231" s="26" t="s">
+      <c r="A231" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B231" s="25" t="s">
+      <c r="B231" s="26" t="s">
         <v>64</v>
       </c>
       <c r="C231" s="23" t="s">
@@ -5564,8 +6395,8 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A232" s="26"/>
-      <c r="B232" s="25"/>
+      <c r="A232" s="27"/>
+      <c r="B232" s="26"/>
       <c r="C232" s="24" t="s">
         <v>97</v>
       </c>
@@ -5574,8 +6405,8 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A233" s="26"/>
-      <c r="B233" s="25"/>
+      <c r="A233" s="27"/>
+      <c r="B233" s="26"/>
       <c r="C233" s="23" t="s">
         <v>273</v>
       </c>
@@ -5584,8 +6415,8 @@
       </c>
     </row>
     <row r="234" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A234" s="26"/>
-      <c r="B234" s="25"/>
+      <c r="A234" s="27"/>
+      <c r="B234" s="26"/>
       <c r="C234" s="24" t="s">
         <v>144</v>
       </c>
@@ -5594,8 +6425,8 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A235" s="26"/>
-      <c r="B235" s="25"/>
+      <c r="A235" s="27"/>
+      <c r="B235" s="26"/>
       <c r="C235" s="23" t="s">
         <v>193</v>
       </c>
@@ -5604,8 +6435,8 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A236" s="26"/>
-      <c r="B236" s="25"/>
+      <c r="A236" s="27"/>
+      <c r="B236" s="26"/>
       <c r="C236" s="23" t="s">
         <v>143</v>
       </c>
@@ -5620,10 +6451,10 @@
       <c r="D237" s="18"/>
     </row>
     <row r="238" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="B238" s="25" t="s">
+      <c r="B238" s="26" t="s">
         <v>201</v>
       </c>
       <c r="C238" s="23" t="s">
@@ -5634,8 +6465,8 @@
       </c>
     </row>
     <row r="239" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A239" s="26"/>
-      <c r="B239" s="25"/>
+      <c r="A239" s="27"/>
+      <c r="B239" s="26"/>
       <c r="C239" s="24" t="s">
         <v>97</v>
       </c>
@@ -5644,8 +6475,8 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A240" s="26"/>
-      <c r="B240" s="25"/>
+      <c r="A240" s="27"/>
+      <c r="B240" s="26"/>
       <c r="C240" s="23" t="s">
         <v>273</v>
       </c>
@@ -5654,8 +6485,8 @@
       </c>
     </row>
     <row r="241" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A241" s="26"/>
-      <c r="B241" s="25"/>
+      <c r="A241" s="27"/>
+      <c r="B241" s="26"/>
       <c r="C241" s="24" t="s">
         <v>144</v>
       </c>
@@ -5664,8 +6495,8 @@
       </c>
     </row>
     <row r="242" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A242" s="26"/>
-      <c r="B242" s="25"/>
+      <c r="A242" s="27"/>
+      <c r="B242" s="26"/>
       <c r="C242" s="23" t="s">
         <v>202</v>
       </c>
@@ -5680,10 +6511,10 @@
       <c r="D243" s="18"/>
     </row>
     <row r="244" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A244" s="26" t="s">
+      <c r="A244" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="B244" s="25" t="s">
+      <c r="B244" s="26" t="s">
         <v>106</v>
       </c>
       <c r="C244" s="23" t="s">
@@ -5694,8 +6525,8 @@
       </c>
     </row>
     <row r="245" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A245" s="26"/>
-      <c r="B245" s="25"/>
+      <c r="A245" s="27"/>
+      <c r="B245" s="26"/>
       <c r="C245" s="24" t="s">
         <v>97</v>
       </c>
@@ -5704,8 +6535,8 @@
       </c>
     </row>
     <row r="246" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A246" s="26"/>
-      <c r="B246" s="25"/>
+      <c r="A246" s="27"/>
+      <c r="B246" s="26"/>
       <c r="C246" s="23" t="s">
         <v>273</v>
       </c>
@@ -5714,8 +6545,8 @@
       </c>
     </row>
     <row r="247" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A247" s="26"/>
-      <c r="B247" s="25"/>
+      <c r="A247" s="27"/>
+      <c r="B247" s="26"/>
       <c r="C247" s="24" t="s">
         <v>144</v>
       </c>
@@ -5724,8 +6555,8 @@
       </c>
     </row>
     <row r="248" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="26"/>
-      <c r="B248" s="25"/>
+      <c r="A248" s="27"/>
+      <c r="B248" s="26"/>
       <c r="C248" s="23" t="s">
         <v>202</v>
       </c>
@@ -5740,10 +6571,10 @@
       <c r="D249" s="18"/>
     </row>
     <row r="250" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A250" s="26" t="s">
+      <c r="A250" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B250" s="25" t="s">
+      <c r="B250" s="26" t="s">
         <v>175</v>
       </c>
       <c r="C250" s="23" t="s">
@@ -5754,8 +6585,8 @@
       </c>
     </row>
     <row r="251" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A251" s="26"/>
-      <c r="B251" s="25"/>
+      <c r="A251" s="27"/>
+      <c r="B251" s="26"/>
       <c r="C251" s="24" t="s">
         <v>97</v>
       </c>
@@ -5764,8 +6595,8 @@
       </c>
     </row>
     <row r="252" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A252" s="26"/>
-      <c r="B252" s="25"/>
+      <c r="A252" s="27"/>
+      <c r="B252" s="26"/>
       <c r="C252" s="23" t="s">
         <v>273</v>
       </c>
@@ -5774,8 +6605,8 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A253" s="26"/>
-      <c r="B253" s="25"/>
+      <c r="A253" s="27"/>
+      <c r="B253" s="26"/>
       <c r="C253" s="24" t="s">
         <v>144</v>
       </c>
@@ -5784,8 +6615,8 @@
       </c>
     </row>
     <row r="254" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A254" s="26"/>
-      <c r="B254" s="25"/>
+      <c r="A254" s="27"/>
+      <c r="B254" s="26"/>
       <c r="C254" s="23" t="s">
         <v>202</v>
       </c>
@@ -5794,8 +6625,8 @@
       </c>
     </row>
     <row r="255" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A255" s="26"/>
-      <c r="B255" s="25"/>
+      <c r="A255" s="27"/>
+      <c r="B255" s="26"/>
       <c r="C255" s="23" t="s">
         <v>205</v>
       </c>
@@ -5810,10 +6641,10 @@
       <c r="D256" s="18"/>
     </row>
     <row r="257" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A257" s="26" t="s">
+      <c r="A257" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B257" s="25" t="s">
+      <c r="B257" s="26" t="s">
         <v>176</v>
       </c>
       <c r="C257" s="23" t="s">
@@ -5824,8 +6655,8 @@
       </c>
     </row>
     <row r="258" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A258" s="26"/>
-      <c r="B258" s="25"/>
+      <c r="A258" s="27"/>
+      <c r="B258" s="26"/>
       <c r="C258" s="24" t="s">
         <v>97</v>
       </c>
@@ -5834,8 +6665,8 @@
       </c>
     </row>
     <row r="259" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A259" s="26"/>
-      <c r="B259" s="25"/>
+      <c r="A259" s="27"/>
+      <c r="B259" s="26"/>
       <c r="C259" s="23" t="s">
         <v>273</v>
       </c>
@@ -5844,8 +6675,8 @@
       </c>
     </row>
     <row r="260" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A260" s="26"/>
-      <c r="B260" s="25"/>
+      <c r="A260" s="27"/>
+      <c r="B260" s="26"/>
       <c r="C260" s="24" t="s">
         <v>144</v>
       </c>
@@ -5854,8 +6685,8 @@
       </c>
     </row>
     <row r="261" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="26"/>
-      <c r="B261" s="25"/>
+      <c r="A261" s="27"/>
+      <c r="B261" s="26"/>
       <c r="C261" s="23" t="s">
         <v>202</v>
       </c>
@@ -5864,8 +6695,8 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A262" s="26"/>
-      <c r="B262" s="25"/>
+      <c r="A262" s="27"/>
+      <c r="B262" s="26"/>
       <c r="C262" s="23" t="s">
         <v>207</v>
       </c>
@@ -5879,10 +6710,10 @@
       <c r="D263" s="18"/>
     </row>
     <row r="264" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A264" s="26" t="s">
+      <c r="A264" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B264" s="25" t="s">
+      <c r="B264" s="26" t="s">
         <v>84</v>
       </c>
       <c r="C264" s="23" t="s">
@@ -5893,8 +6724,8 @@
       </c>
     </row>
     <row r="265" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A265" s="26"/>
-      <c r="B265" s="25"/>
+      <c r="A265" s="27"/>
+      <c r="B265" s="26"/>
       <c r="C265" s="24" t="s">
         <v>97</v>
       </c>
@@ -5903,8 +6734,8 @@
       </c>
     </row>
     <row r="266" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A266" s="26"/>
-      <c r="B266" s="25"/>
+      <c r="A266" s="27"/>
+      <c r="B266" s="26"/>
       <c r="C266" s="23" t="s">
         <v>273</v>
       </c>
@@ -5913,8 +6744,8 @@
       </c>
     </row>
     <row r="267" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A267" s="26"/>
-      <c r="B267" s="25"/>
+      <c r="A267" s="27"/>
+      <c r="B267" s="26"/>
       <c r="C267" s="24" t="s">
         <v>144</v>
       </c>
@@ -5923,8 +6754,8 @@
       </c>
     </row>
     <row r="268" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="26"/>
-      <c r="B268" s="25"/>
+      <c r="A268" s="27"/>
+      <c r="B268" s="26"/>
       <c r="C268" s="24" t="s">
         <v>213</v>
       </c>
@@ -5938,10 +6769,10 @@
       <c r="D269" s="18"/>
     </row>
     <row r="270" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A270" s="26" t="s">
+      <c r="A270" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B270" s="25" t="s">
+      <c r="B270" s="26" t="s">
         <v>85</v>
       </c>
       <c r="C270" s="23" t="s">
@@ -5952,8 +6783,8 @@
       </c>
     </row>
     <row r="271" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A271" s="26"/>
-      <c r="B271" s="25"/>
+      <c r="A271" s="27"/>
+      <c r="B271" s="26"/>
       <c r="C271" s="24" t="s">
         <v>97</v>
       </c>
@@ -5962,8 +6793,8 @@
       </c>
     </row>
     <row r="272" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A272" s="26"/>
-      <c r="B272" s="25"/>
+      <c r="A272" s="27"/>
+      <c r="B272" s="26"/>
       <c r="C272" s="23" t="s">
         <v>273</v>
       </c>
@@ -5972,8 +6803,8 @@
       </c>
     </row>
     <row r="273" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A273" s="26"/>
-      <c r="B273" s="25"/>
+      <c r="A273" s="27"/>
+      <c r="B273" s="26"/>
       <c r="C273" s="24" t="s">
         <v>144</v>
       </c>
@@ -5982,8 +6813,8 @@
       </c>
     </row>
     <row r="274" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A274" s="26"/>
-      <c r="B274" s="25"/>
+      <c r="A274" s="27"/>
+      <c r="B274" s="26"/>
       <c r="C274" s="24" t="s">
         <v>213</v>
       </c>
@@ -5992,8 +6823,8 @@
       </c>
     </row>
     <row r="275" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A275" s="26"/>
-      <c r="B275" s="25"/>
+      <c r="A275" s="27"/>
+      <c r="B275" s="26"/>
       <c r="C275" s="24" t="s">
         <v>215</v>
       </c>
@@ -6007,10 +6838,10 @@
       <c r="D276" s="18"/>
     </row>
     <row r="277" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A277" s="26" t="s">
+      <c r="A277" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B277" s="25" t="s">
+      <c r="B277" s="26" t="s">
         <v>86</v>
       </c>
       <c r="C277" s="23" t="s">
@@ -6021,8 +6852,8 @@
       </c>
     </row>
     <row r="278" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A278" s="26"/>
-      <c r="B278" s="25"/>
+      <c r="A278" s="27"/>
+      <c r="B278" s="26"/>
       <c r="C278" s="24" t="s">
         <v>97</v>
       </c>
@@ -6031,8 +6862,8 @@
       </c>
     </row>
     <row r="279" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A279" s="26"/>
-      <c r="B279" s="25"/>
+      <c r="A279" s="27"/>
+      <c r="B279" s="26"/>
       <c r="C279" s="23" t="s">
         <v>273</v>
       </c>
@@ -6041,8 +6872,8 @@
       </c>
     </row>
     <row r="280" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A280" s="26"/>
-      <c r="B280" s="25"/>
+      <c r="A280" s="27"/>
+      <c r="B280" s="26"/>
       <c r="C280" s="24" t="s">
         <v>144</v>
       </c>
@@ -6051,8 +6882,8 @@
       </c>
     </row>
     <row r="281" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A281" s="26"/>
-      <c r="B281" s="25"/>
+      <c r="A281" s="27"/>
+      <c r="B281" s="26"/>
       <c r="C281" s="24" t="s">
         <v>217</v>
       </c>
@@ -6066,10 +6897,10 @@
       <c r="D282" s="18"/>
     </row>
     <row r="283" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A283" s="26" t="s">
+      <c r="A283" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="B283" s="25" t="s">
+      <c r="B283" s="26" t="s">
         <v>219</v>
       </c>
       <c r="C283" s="23" t="s">
@@ -6080,8 +6911,8 @@
       </c>
     </row>
     <row r="284" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A284" s="26"/>
-      <c r="B284" s="25"/>
+      <c r="A284" s="27"/>
+      <c r="B284" s="26"/>
       <c r="C284" s="24" t="s">
         <v>97</v>
       </c>
@@ -6090,8 +6921,8 @@
       </c>
     </row>
     <row r="285" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A285" s="26"/>
-      <c r="B285" s="25"/>
+      <c r="A285" s="27"/>
+      <c r="B285" s="26"/>
       <c r="C285" s="23" t="s">
         <v>273</v>
       </c>
@@ -6100,8 +6931,8 @@
       </c>
     </row>
     <row r="286" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A286" s="26"/>
-      <c r="B286" s="25"/>
+      <c r="A286" s="27"/>
+      <c r="B286" s="26"/>
       <c r="C286" s="24" t="s">
         <v>144</v>
       </c>
@@ -6110,8 +6941,8 @@
       </c>
     </row>
     <row r="287" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A287" s="26"/>
-      <c r="B287" s="25"/>
+      <c r="A287" s="27"/>
+      <c r="B287" s="26"/>
       <c r="C287" s="23" t="s">
         <v>221</v>
       </c>
@@ -6125,10 +6956,10 @@
       <c r="D288" s="18"/>
     </row>
     <row r="289" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A289" s="26" t="s">
+      <c r="A289" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B289" s="25" t="s">
+      <c r="B289" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C289" s="23" t="s">
@@ -6139,8 +6970,8 @@
       </c>
     </row>
     <row r="290" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A290" s="26"/>
-      <c r="B290" s="25"/>
+      <c r="A290" s="27"/>
+      <c r="B290" s="26"/>
       <c r="C290" s="24" t="s">
         <v>97</v>
       </c>
@@ -6149,8 +6980,8 @@
       </c>
     </row>
     <row r="291" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A291" s="26"/>
-      <c r="B291" s="25"/>
+      <c r="A291" s="27"/>
+      <c r="B291" s="26"/>
       <c r="C291" s="23" t="s">
         <v>273</v>
       </c>
@@ -6159,8 +6990,8 @@
       </c>
     </row>
     <row r="292" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A292" s="26"/>
-      <c r="B292" s="25"/>
+      <c r="A292" s="27"/>
+      <c r="B292" s="26"/>
       <c r="C292" s="24" t="s">
         <v>144</v>
       </c>
@@ -6169,8 +7000,8 @@
       </c>
     </row>
     <row r="293" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A293" s="26"/>
-      <c r="B293" s="25"/>
+      <c r="A293" s="27"/>
+      <c r="B293" s="26"/>
       <c r="C293" s="23" t="s">
         <v>223</v>
       </c>
@@ -7323,72 +8154,12 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="B289:B293"/>
-    <mergeCell ref="A289:A293"/>
-    <mergeCell ref="B283:B287"/>
-    <mergeCell ref="A283:A287"/>
-    <mergeCell ref="B264:B268"/>
-    <mergeCell ref="A264:A268"/>
-    <mergeCell ref="B270:B275"/>
-    <mergeCell ref="A270:A275"/>
-    <mergeCell ref="A277:A281"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="A244:A248"/>
-    <mergeCell ref="B244:B248"/>
-    <mergeCell ref="B250:B255"/>
-    <mergeCell ref="A250:A255"/>
-    <mergeCell ref="A257:A262"/>
-    <mergeCell ref="B257:B262"/>
-    <mergeCell ref="B223:B229"/>
-    <mergeCell ref="A223:A229"/>
-    <mergeCell ref="A231:A236"/>
-    <mergeCell ref="B231:B236"/>
-    <mergeCell ref="B238:B242"/>
-    <mergeCell ref="A238:A242"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="B216:B221"/>
-    <mergeCell ref="A216:A221"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B169:B174"/>
-    <mergeCell ref="A169:A174"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="B150:B154"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="B138:B142"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B12"/>
@@ -7405,24 +8176,84 @@
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="B34:B39"/>
     <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="B138:B142"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="B150:B154"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B169:B174"/>
+    <mergeCell ref="A169:A174"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="B216:B221"/>
+    <mergeCell ref="A216:A221"/>
+    <mergeCell ref="B223:B229"/>
+    <mergeCell ref="A223:A229"/>
+    <mergeCell ref="A231:A236"/>
+    <mergeCell ref="B231:B236"/>
+    <mergeCell ref="B238:B242"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="A244:A248"/>
+    <mergeCell ref="B244:B248"/>
+    <mergeCell ref="B250:B255"/>
+    <mergeCell ref="A250:A255"/>
+    <mergeCell ref="A257:A262"/>
+    <mergeCell ref="B257:B262"/>
+    <mergeCell ref="B289:B293"/>
+    <mergeCell ref="A289:A293"/>
+    <mergeCell ref="B283:B287"/>
+    <mergeCell ref="A283:A287"/>
+    <mergeCell ref="B264:B268"/>
+    <mergeCell ref="A264:A268"/>
+    <mergeCell ref="B270:B275"/>
+    <mergeCell ref="A270:A275"/>
+    <mergeCell ref="A277:A281"/>
+    <mergeCell ref="B277:B281"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864DDFB4-7E7B-432C-AB09-C7FE52E7A109}">
   <dimension ref="A1:XFD60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24066,12 +24897,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C9E9F4-C273-4770-93D7-BAD82376940C}">
   <dimension ref="A1:H475"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24113,10 +24944,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>233</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -24127,8 +24958,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="24" t="s">
         <v>97</v>
       </c>
@@ -24137,8 +24968,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="23" t="s">
         <v>273</v>
       </c>
@@ -24147,8 +24978,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="24" t="s">
         <v>246</v>
       </c>
@@ -24160,10 +24991,10 @@
       <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>236</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -24174,8 +25005,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="24" t="s">
         <v>97</v>
       </c>
@@ -24184,8 +25015,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="23" t="s">
         <v>273</v>
       </c>
@@ -24194,8 +25025,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="24" t="s">
         <v>246</v>
       </c>
@@ -24204,8 +25035,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="24" t="s">
         <v>249</v>
       </c>
@@ -24274,10 +25105,10 @@
       <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>237</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -24288,8 +25119,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="24" t="s">
         <v>97</v>
       </c>
@@ -24298,8 +25129,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="23" t="s">
         <v>273</v>
       </c>
@@ -24308,8 +25139,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="24" t="s">
         <v>246</v>
       </c>
@@ -24318,8 +25149,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="24" t="s">
         <v>254</v>
       </c>
@@ -24328,8 +25159,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="24" t="s">
         <v>255</v>
       </c>
@@ -24341,10 +25172,10 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>238</v>
       </c>
       <c r="C27" s="23" t="s">
@@ -24355,8 +25186,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="24" t="s">
         <v>97</v>
       </c>
@@ -24365,8 +25196,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="26"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="23" t="s">
         <v>273</v>
       </c>
@@ -24375,8 +25206,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
-      <c r="B30" s="25"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="24" t="s">
         <v>246</v>
       </c>
@@ -24385,8 +25216,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="24" t="s">
         <v>257</v>
       </c>
@@ -24398,10 +25229,10 @@
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="26" t="s">
         <v>239</v>
       </c>
       <c r="C33" s="23" t="s">
@@ -24412,8 +25243,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="24" t="s">
         <v>97</v>
       </c>
@@ -24422,8 +25253,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="23" t="s">
         <v>273</v>
       </c>
@@ -24432,8 +25263,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="24" t="s">
         <v>246</v>
       </c>
@@ -24442,8 +25273,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="26"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="24" t="s">
         <v>257</v>
       </c>
@@ -24463,10 +25294,10 @@
       <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="26" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="23" t="s">
@@ -24477,8 +25308,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="26"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="24" t="s">
         <v>97</v>
       </c>
@@ -24487,8 +25318,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="23" t="s">
         <v>273</v>
       </c>
@@ -24497,8 +25328,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="26"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="24" t="s">
         <v>246</v>
       </c>
@@ -24507,8 +25338,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="26"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="24" t="s">
         <v>261</v>
       </c>
@@ -24520,10 +25351,10 @@
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="26" t="s">
         <v>262</v>
       </c>
       <c r="C46" s="23" t="s">
@@ -24534,8 +25365,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="26"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="24" t="s">
         <v>97</v>
       </c>
@@ -24544,8 +25375,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="26"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="23" t="s">
         <v>273</v>
       </c>
@@ -24554,8 +25385,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="26"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="24" t="s">
         <v>246</v>
       </c>
@@ -24564,8 +25395,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="26"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="24" t="s">
         <v>261</v>
       </c>
@@ -24574,8 +25405,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="26"/>
-      <c r="B51" s="25"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="24" t="s">
         <v>263</v>
       </c>
@@ -24587,10 +25418,10 @@
       <c r="C52" s="24"/>
     </row>
     <row r="53" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C53" s="23" t="s">
@@ -24601,8 +25432,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="26"/>
-      <c r="B54" s="25"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="24" t="s">
         <v>97</v>
       </c>
@@ -24611,8 +25442,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="26"/>
-      <c r="B55" s="25"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="23" t="s">
         <v>273</v>
       </c>
@@ -24621,8 +25452,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="26"/>
-      <c r="B56" s="25"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="24" t="s">
         <v>246</v>
       </c>
@@ -24631,8 +25462,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="26"/>
-      <c r="B57" s="25"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="24" t="s">
         <v>261</v>
       </c>
@@ -24641,8 +25472,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="26"/>
-      <c r="B58" s="25"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="24" t="s">
         <v>263</v>
       </c>
@@ -24651,8 +25482,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="26"/>
-      <c r="B59" s="25"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="24" t="s">
         <v>265</v>
       </c>
@@ -24664,10 +25495,10 @@
       <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="26" t="s">
         <v>245</v>
       </c>
       <c r="C61" s="23" t="s">
@@ -24678,8 +25509,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="26"/>
-      <c r="B62" s="25"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="24" t="s">
         <v>97</v>
       </c>
@@ -24688,8 +25519,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="26"/>
-      <c r="B63" s="25"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="23" t="s">
         <v>273</v>
       </c>
@@ -24698,8 +25529,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="26"/>
-      <c r="B64" s="25"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="24" t="s">
         <v>246</v>
       </c>
@@ -24708,8 +25539,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="26"/>
-      <c r="B65" s="25"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="24" t="s">
         <v>261</v>
       </c>
@@ -24718,8 +25549,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="26"/>
-      <c r="B66" s="25"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="24" t="s">
         <v>263</v>
       </c>
@@ -24728,8 +25559,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A67" s="26"/>
-      <c r="B67" s="25"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="24" t="s">
         <v>267</v>
       </c>
@@ -25885,12 +26716,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A25"/>
     <mergeCell ref="A53:A59"/>
     <mergeCell ref="A61:A67"/>
     <mergeCell ref="A27:A31"/>
@@ -25903,8 +26728,1862 @@
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831819CA-9A03-452B-9F91-E3B3613F1C19}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.90625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="74" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="24.08984375" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB572DC-168C-499F-BAB3-0F7F54D89088}">
+  <dimension ref="A1:H475"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" style="7" customWidth="1"/>
+    <col min="2" max="2" width="52.1796875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="55.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="C14" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="C15" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C17" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C18" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="27"/>
+      <c r="B20" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="27"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="27"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="27"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="27"/>
+      <c r="B27" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="27"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="27"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="27"/>
+      <c r="B33" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="27"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="27"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="27"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="27"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C38" s="24"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C39" s="23"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="27"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="27"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="24"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="27"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="23"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="27"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="24"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="27"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="24"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C45" s="23"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="27"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="23"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="27"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="24"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="27"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="23"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="27"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="24"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="27"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="24"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="27"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="24"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C52" s="24"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="27"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="23"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="27"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="24"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="27"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="23"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="27"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="24"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="27"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="24"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="27"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="24"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="27"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="24"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C60" s="24"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="27"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="23"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="27"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="24"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="27"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="23"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="27"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="24"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="27"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="24"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="27"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="24"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="27"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="24"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C68" s="23"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C69" s="23"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C70" s="23"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C71" s="23"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C72" s="24"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C73" s="23"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C74" s="24"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C75" s="24"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C76" s="24"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C77" s="23"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C78" s="23"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C80" s="23"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C81" s="24"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C82" s="23"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C83" s="24"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C84" s="23"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C85" s="23"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C86" s="23"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C87" s="23"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C88" s="24"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C89" s="23"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C90" s="24"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C91" s="23"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C92" s="23"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C93" s="23"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C94" s="23"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C95" s="23"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C96" s="24"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C97" s="23"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C98" s="24"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C99" s="23"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C100" s="23"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C101" s="23"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C102" s="23"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C103" s="24"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C104" s="23"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C105" s="24"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C106" s="23"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C107" s="23"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C108" s="23"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C109" s="24"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C110" s="23"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C111" s="24"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C112" s="23"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C113" s="23"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C114" s="23"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C115" s="24"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C116" s="23"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C117" s="24"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C118" s="23"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C119" s="23"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C120" s="23"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C121" s="24"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C122" s="23"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C123" s="24"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C124" s="23"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C125" s="23"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C126" s="23"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C127" s="24"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C128" s="23"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C129" s="24"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C130" s="24"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C131" s="23"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C132" s="23"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C133" s="24"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C134" s="23"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C135" s="24"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C136" s="24"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C137" s="23"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C138" s="23"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C139" s="24"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C140" s="23"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C141" s="24"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C142" s="24"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C143" s="23"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C144" s="23"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C145" s="24"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C146" s="23"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C147" s="24"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C148" s="24"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C149" s="24"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C150" s="23"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C151" s="24"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C152" s="23"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C153" s="24"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C154" s="24"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C155" s="24"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C156" s="23"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C157" s="24"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C158" s="23"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C159" s="24"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C160" s="24"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C161" s="24"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C162" s="23"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C163" s="24"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C164" s="23"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C165" s="24"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C166" s="24"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C167" s="24"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C168" s="24"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C169" s="23"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C170" s="24"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C171" s="23"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C172" s="24"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C173" s="24"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C174" s="24"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C175" s="24"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C176" s="23"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C177" s="24"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C178" s="23"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C179" s="24"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C180" s="24"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C181" s="24"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C182" s="24"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C183" s="23"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C184" s="24"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C185" s="23"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C186" s="24"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C187" s="24"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C188" s="24"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C189" s="24"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C190" s="23"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C191" s="24"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C192" s="23"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C193" s="24"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C194" s="24"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C195" s="24"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C196" s="24"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C197" s="23"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C198" s="24"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C199" s="23"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C200" s="24"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C201" s="24"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C202" s="24"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C203" s="24"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C204" s="23"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C205" s="24"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C206" s="23"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C207" s="24"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C208" s="23"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C209" s="24"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C210" s="23"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C211" s="24"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C212" s="23"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C213" s="24"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C214" s="23"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C215" s="24"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C216" s="23"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C217" s="24"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C218" s="23"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C219" s="24"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C220" s="23"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C221" s="23"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C222" s="24"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C223" s="23"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C224" s="24"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C225" s="23"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C226" s="24"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C227" s="23"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C228" s="23"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C229" s="23"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C230" s="23"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C231" s="23"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C232" s="24"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C233" s="23"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C234" s="24"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C235" s="23"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C236" s="23"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C237" s="23"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C238" s="23"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C239" s="24"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C240" s="23"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C241" s="24"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C242" s="23"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C243" s="23"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C244" s="23"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C245" s="24"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C246" s="23"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C247" s="24"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C248" s="23"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C249" s="23"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C250" s="23"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C251" s="24"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C252" s="23"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C253" s="24"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C254" s="23"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C255" s="23"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C256" s="23"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C257" s="23"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C258" s="24"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C259" s="23"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C260" s="24"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C261" s="23"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C262" s="23"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C263" s="23"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C264" s="23"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C265" s="24"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C266" s="23"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C267" s="24"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C268" s="24"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C269" s="23"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C270" s="23"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C271" s="24"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C272" s="23"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C273" s="24"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C274" s="24"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C275" s="24"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C276" s="23"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C277" s="23"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C278" s="24"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C279" s="23"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C280" s="24"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C281" s="24"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C282" s="23"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C283" s="23"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C284" s="24"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C285" s="23"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C286" s="24"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C287" s="23"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C288" s="23"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C289" s="23"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C290" s="24"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C291" s="23"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C292" s="24"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C293" s="23"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C294" s="23"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C295" s="23"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C296" s="24"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C297" s="23"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C298" s="24"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C299" s="24"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C300" s="23"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C301" s="23"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C302" s="24"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C303" s="23"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C304" s="24"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C305" s="24"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C306" s="23"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C308" s="23"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C309" s="23"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C310" s="23"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C311" s="23"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C313" s="23"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C314" s="23"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C315" s="23"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C316" s="23"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C318" s="23"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C319" s="23"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C320" s="23"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C321" s="23"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C323" s="23"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C324" s="23"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C325" s="23"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C326" s="23"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C328" s="23"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C329" s="23"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C330" s="23"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C331" s="23"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C333" s="23"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C334" s="23"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C335" s="23"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C336" s="23"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C338" s="23"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C339" s="23"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C340" s="23"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C341" s="23"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C343" s="23"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C344" s="23"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C345" s="23"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C346" s="23"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C347" s="23"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C348" s="23"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C349" s="23"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C350" s="23"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C351" s="23"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C352" s="23"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C353" s="23"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C354" s="23"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C355" s="23"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C357" s="23"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C358" s="23"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C359" s="23"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C360" s="23"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C361" s="23"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C362" s="23"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C363" s="23"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C365" s="23"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C366" s="23"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C367" s="23"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C368" s="23"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C369" s="23"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C370" s="23"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C371" s="23"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C373" s="23"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C374" s="23"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C375" s="23"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C376" s="23"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C377" s="23"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C378" s="23"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C380" s="23"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C381" s="23"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C382" s="23"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C383" s="23"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C384" s="23"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C385" s="23"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C387" s="23"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C388" s="23"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C389" s="23"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C390" s="23"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C392" s="23"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C393" s="23"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C394" s="23"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C395" s="23"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C396" s="23"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C397" s="23"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C398" s="23"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C399" s="23"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C400" s="23"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C401" s="23"/>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C403" s="23"/>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C404" s="23"/>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C405" s="23"/>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C406" s="23"/>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C407" s="23"/>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C408" s="23"/>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C409" s="23"/>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C411" s="23"/>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C412" s="23"/>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C413" s="23"/>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C414" s="23"/>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C415" s="23"/>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C416" s="23"/>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C418" s="23"/>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C419" s="23"/>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C420" s="23"/>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C421" s="23"/>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C423" s="23"/>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C424" s="23"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C425" s="23"/>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C427" s="23"/>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C428" s="23"/>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C429" s="23"/>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C430" s="23"/>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C431" s="23"/>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C432" s="23"/>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C434" s="23"/>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C435" s="23"/>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C436" s="23"/>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C437" s="23"/>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C439" s="23"/>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C440" s="23"/>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C441" s="23"/>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C442" s="23"/>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C443" s="23"/>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C444" s="23"/>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C446" s="23"/>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C447" s="23"/>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C448" s="23"/>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C449" s="23"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C451" s="23"/>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C452" s="23"/>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C453" s="23"/>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C454" s="23"/>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C455" s="23"/>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C456" s="23"/>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C457" s="23"/>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C458" s="23"/>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C459" s="23"/>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C461" s="23"/>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C462" s="23"/>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C463" s="23"/>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C464" s="23"/>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C466" s="23"/>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C467" s="23"/>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C468" s="23"/>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C469" s="23"/>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C470" s="23"/>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C471" s="23"/>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C472" s="23"/>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C473" s="23"/>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C474" s="23"/>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C475" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263E8AAB-8D12-48AB-A37A-0CBF4D868CFB}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.90625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="74" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="24.08984375" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>